--- a/data/processed/hyalophane_StA/calczaf_files/detlim/calczaf_outputs.xlsx
+++ b/data/processed/hyalophane_StA/calczaf_files/detlim/calczaf_outputs.xlsx
@@ -447,31 +447,31 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>0.015</v>
+      </c>
+      <c r="C2">
         <v>0.02</v>
       </c>
-      <c r="C2">
-        <v>0.023</v>
-      </c>
       <c r="D2">
-        <v>0.034</v>
+        <v>0.024</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="F2">
         <v>0.014</v>
       </c>
       <c r="G2">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="H2">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="I2">
         <v>0.014</v>
       </c>
       <c r="J2">
-        <v>0.034</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -511,31 +511,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.031</v>
+        <v>0.023</v>
       </c>
       <c r="C5">
-        <v>0.037</v>
+        <v>0.032</v>
       </c>
       <c r="D5">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
       <c r="E5">
-        <v>0.032</v>
+        <v>0.027</v>
       </c>
       <c r="F5">
         <v>0.022</v>
       </c>
       <c r="G5">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="H5">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="I5">
         <v>0.022</v>
       </c>
       <c r="J5">
-        <v>0.053</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -575,31 +575,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="C8">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="D8">
-        <v>0.059</v>
+        <v>0.043</v>
       </c>
       <c r="E8">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="G8">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="H8">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="I8">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="J8">
-        <v>0.059</v>
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
@@ -655,31 +655,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="C2">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="D2">
-        <v>0.035</v>
+        <v>0.026</v>
       </c>
       <c r="E2">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="F2">
         <v>0.015</v>
       </c>
       <c r="G2">
-        <v>0.023</v>
+        <v>0.019</v>
       </c>
       <c r="H2">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="I2">
         <v>0.015</v>
       </c>
       <c r="J2">
-        <v>0.035</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -719,31 +719,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="C5">
-        <v>0.038</v>
+        <v>0.033</v>
       </c>
       <c r="D5">
-        <v>0.056</v>
+        <v>0.041</v>
       </c>
       <c r="E5">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="F5">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="G5">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="I5">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="J5">
-        <v>0.056</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -783,31 +783,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.036</v>
+        <v>0.027</v>
       </c>
       <c r="C8">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="D8">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="E8">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="F8">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="G8">
-        <v>0.04</v>
+        <v>0.033</v>
       </c>
       <c r="H8">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="I8">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="J8">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
     </row>
   </sheetData>
@@ -863,16 +863,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="C2">
         <v>0.013</v>
       </c>
       <c r="D2">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="E2">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="F2">
         <v>0.013</v>
@@ -881,13 +881,13 @@
         <v>0.013</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I2">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="J2">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -927,31 +927,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="C5">
         <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="E5">
         <v>0.02</v>
       </c>
       <c r="F5">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="G5">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I5">
         <v>0.02</v>
       </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -991,31 +991,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="C8">
         <v>0.022</v>
       </c>
       <c r="D8">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="E8">
         <v>0.022</v>
       </c>
       <c r="F8">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="G8">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I8">
         <v>0.022</v>
       </c>
       <c r="J8">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
@@ -1071,13 +1071,13 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>0.016</v>
+      </c>
+      <c r="C2">
         <v>0.015</v>
       </c>
-      <c r="C2">
-        <v>0.016</v>
-      </c>
       <c r="D2">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="E2">
         <v>0.015</v>
@@ -1086,16 +1086,16 @@
         <v>0.016</v>
       </c>
       <c r="G2">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I2">
         <v>0.015</v>
       </c>
       <c r="J2">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1135,13 +1135,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="C5">
         <v>0.024</v>
       </c>
       <c r="D5">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="E5">
         <v>0.024</v>
@@ -1150,16 +1150,16 @@
         <v>0.025</v>
       </c>
       <c r="G5">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="I5">
         <v>0.024</v>
       </c>
       <c r="J5">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1199,31 +1199,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="C8">
         <v>0.027</v>
       </c>
       <c r="D8">
+        <v>0.03</v>
+      </c>
+      <c r="E8">
         <v>0.027</v>
-      </c>
-      <c r="E8">
-        <v>0.026</v>
       </c>
       <c r="F8">
         <v>0.028</v>
       </c>
       <c r="G8">
+        <v>0.028</v>
+      </c>
+      <c r="H8">
+        <v>0.001</v>
+      </c>
+      <c r="I8">
         <v>0.027</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.026</v>
-      </c>
       <c r="J8">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
